--- a/Daily_plan/2019/04_April/April.xlsx
+++ b/Daily_plan/2019/04_April/April.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t xml:space="preserve">Week_01</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t xml:space="preserve">Started Ch02, executed the insertion sort as per the example but its not working and its providing error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started C++11 session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussed about the lvalue, rvalue, rvalue reference, unordered containers, lambda fn</t>
   </si>
 </sst>
 </file>
@@ -563,15 +569,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="65.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.4897959183674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,16 +1135,13 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="113.795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="78.8367346938775"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="112.581632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="77.8877551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,7 +1213,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="n">
         <v>0.4375</v>
       </c>
@@ -1229,52 +1232,81 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="31"/>
+      <c r="A9" s="28" t="n">
+        <v>0.614583333333333</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="28" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D9" s="28" t="n">
+        <f aca="false">C9-A9</f>
+        <v>0.09375</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15"/>
       <c r="B10" s="29"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="D10" s="28" t="n">
+        <f aca="false">C10-A10</f>
+        <v>0</v>
+      </c>
       <c r="E10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15"/>
       <c r="B11" s="29"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="28" t="n">
+        <f aca="false">C11-A11</f>
+        <v>0</v>
+      </c>
       <c r="E11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15"/>
       <c r="B12" s="29"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="28" t="n">
+        <f aca="false">C12-A12</f>
+        <v>0</v>
+      </c>
       <c r="E12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="29"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="D13" s="28" t="n">
+        <f aca="false">C13-A13</f>
+        <v>0</v>
+      </c>
       <c r="E13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15"/>
       <c r="B14" s="29"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="28" t="n">
+        <f aca="false">C14-A14</f>
+        <v>0</v>
+      </c>
       <c r="E14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15"/>
       <c r="B15" s="29"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="D15" s="28" t="n">
+        <f aca="false">C15-A15</f>
+        <v>0</v>
+      </c>
       <c r="E15" s="31"/>
     </row>
   </sheetData>

--- a/Daily_plan/2019/04_April/April.xlsx
+++ b/Daily_plan/2019/04_April/April.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="95">
   <si>
     <t xml:space="preserve">Week_01</t>
   </si>
@@ -109,6 +109,12 @@
     <t xml:space="preserve">Python – Maps</t>
   </si>
   <si>
+    <t xml:space="preserve">Linux IPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipe, FIFO, Message queue, Semaphore, Shared Memory</t>
+  </si>
+  <si>
     <t xml:space="preserve">Planning</t>
   </si>
   <si>
@@ -139,10 +145,46 @@
     <t xml:space="preserve">Actual Hrs</t>
   </si>
   <si>
+    <t xml:space="preserve">Exceed Hrs</t>
+  </si>
+  <si>
     <t xml:space="preserve">No except, nullptr, Strongtyped enum, Initialization list</t>
   </si>
   <si>
-    <t xml:space="preserve">It meeting, </t>
+    <t xml:space="preserve">No except</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It meeting, Insurance call, lunch, tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-04-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nullptr, Strongtyped enum, Initialization list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered the topic, now im comfortable with pipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to complete two way communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semaphore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Json</t>
   </si>
   <si>
     <t xml:space="preserve">Monday</t>
@@ -193,10 +235,10 @@
     <t xml:space="preserve">Nothing much happened</t>
   </si>
   <si>
+    <t xml:space="preserve">NOT FILLED</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 01-04-2019 to 05-04-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux IPC</t>
   </si>
   <si>
     <t xml:space="preserve">Pipe, Fifo, Shared memory, Semaphore and message queue</t>
@@ -280,7 +322,7 @@
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="HH:MM:SS"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -321,12 +363,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -481,100 +517,100 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -670,23 +706,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F42"/>
+  <dimension ref="A2:G59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.6632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.4183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.2091836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.984693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.4285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,49 +760,49 @@
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="13"/>
+      <c r="E5" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="13"/>
+      <c r="E6" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="13"/>
+      <c r="E7" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
@@ -777,75 +812,75 @@
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="13"/>
+      <c r="E9" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="13"/>
+      <c r="E10" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="13"/>
+      <c r="E11" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
@@ -855,370 +890,719 @@
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13"/>
+      <c r="E15" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13"/>
+      <c r="E16" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13"/>
+      <c r="E17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13"/>
+      <c r="E18" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13"/>
+      <c r="E19" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="13"/>
+      <c r="E20" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13"/>
+      <c r="E21" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13"/>
+      <c r="E22" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="12" t="n">
+      <c r="E24" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" s="11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4"/>
+      <c r="B25" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="12" t="n">
+      <c r="F26" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="0" t="n">
-        <f aca="false">SUM(E5:E25)</f>
-        <v>40</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <f aca="false">SUM(F5:F25)</f>
-        <v>0</v>
+      <c r="F27" s="11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="16" t="s">
+      <c r="E28" s="0" t="n">
+        <f aca="false">SUM(E5:E27)</f>
+        <v>43</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">SUM(F5:F27)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="16" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="C31" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="D31" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-      <c r="B30" s="5" t="s">
+      <c r="E31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11"/>
+      <c r="B32" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" s="12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="B32" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="16" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E33" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="18" t="n">
+        <f aca="false">F33-E33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11"/>
+      <c r="B34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="n">
+      <c r="C35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" s="18" t="n">
+        <f aca="false">F35-E35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="12" t="n">
+      <c r="C36" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="16" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
-      <c r="B35" s="5" t="s">
+      <c r="E36" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="18" t="n">
+        <f aca="false">F36-E36</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11"/>
+      <c r="B37" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
-      <c r="B37" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="12" t="n">
+      <c r="A38" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="16" t="n">
         <v>0</v>
       </c>
+      <c r="E38" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="18" t="n">
+        <f aca="false">F38-E38</f>
+        <v>-1</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
-      <c r="B39" s="15" t="s">
-        <v>27</v>
+      <c r="A39" s="11"/>
+      <c r="B39" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="n">
+      <c r="A40" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="18" t="n">
+        <f aca="false">F40-E40</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19" t="n">
+      <c r="B42" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="F40" s="12" t="n">
+      <c r="F42" s="11" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="n">
+      <c r="G42" s="18" t="n">
+        <f aca="false">F42-E42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" s="18" t="n">
+        <f aca="false">F43-E43</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="E44" s="20" t="n">
+        <f aca="false">SUM(E32:E43)</f>
+        <v>7.5</v>
+      </c>
+      <c r="F44" s="20" t="n">
+        <f aca="false">SUM(F32:F43)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11"/>
+      <c r="B48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="18" t="n">
+        <f aca="false">F49-E49</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11"/>
+      <c r="B50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" s="18" t="n">
+        <f aca="false">F51-E51</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" s="18" t="n">
+        <f aca="false">F52-E52</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="18" t="n">
+        <f aca="false">F53-E53</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11"/>
+      <c r="B54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F55" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="18" t="n">
+        <f aca="false">F55-E55</f>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="E42" s="21" t="n">
-        <f aca="false">SUM(E30:E41)</f>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F57" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G57" s="18" t="n">
+        <f aca="false">F57-E57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F58" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" s="18" t="n">
+        <f aca="false">F58-E58</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="E59" s="20" t="n">
+        <f aca="false">SUM(E48:E58)</f>
         <v>7.5</v>
       </c>
-      <c r="F42" s="21" t="n">
-        <f aca="false">SUM(F30:F41)</f>
-        <v>7.5</v>
+      <c r="F59" s="20" t="n">
+        <f aca="false">SUM(F48:F58)</f>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -1237,188 +1621,222 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="111.367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.9438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="110.15306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
-        <v>31</v>
+      <c r="A2" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>44</v>
+      <c r="A3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="n">
+      <c r="A4" s="26" t="n">
         <v>0.46875</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="27" t="n">
+      <c r="B4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="26" t="n">
         <v>0.496527777777778</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="26" t="n">
         <f aca="false">C4-A4</f>
         <v>0.0277777777777778</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>46</v>
+      <c r="E4" s="27" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="n">
+      <c r="A5" s="26" t="n">
         <v>0.496527777777778</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="27" t="n">
+      <c r="B5" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="26" t="n">
         <v>0.579861111111111</v>
       </c>
-      <c r="D5" s="27" t="n">
+      <c r="D5" s="26" t="n">
         <f aca="false">C5-A5</f>
         <v>0.0833333333333334</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>47</v>
+      <c r="E5" s="29" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="n">
+      <c r="A6" s="26" t="n">
         <v>0.579861111111111</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="27" t="n">
+      <c r="B6" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="26" t="n">
         <v>0.611111111111111</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="26" t="n">
         <f aca="false">C6-A6</f>
         <v>0.03125</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>49</v>
+      <c r="E6" s="29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="n">
+      <c r="A7" s="26" t="n">
         <v>0.611111111111111</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="27" t="n">
+      <c r="B7" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="26" t="n">
         <v>0.65625</v>
       </c>
-      <c r="D7" s="27" t="n">
+      <c r="D7" s="26" t="n">
         <f aca="false">C7-A7</f>
         <v>0.0451388888888888</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>51</v>
+      <c r="E7" s="29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="n">
+      <c r="A8" s="26" t="n">
         <v>0.663194444444444</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="27" t="n">
+      <c r="B8" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="26" t="n">
         <v>0.715277777777778</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="26" t="n">
         <f aca="false">C8-A8</f>
         <v>0.0520833333333334</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>52</v>
+      <c r="E8" s="29" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="n">
+      <c r="A9" s="26" t="n">
         <v>0.4375</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="27" t="n">
+      <c r="B9" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="26" t="n">
         <v>0.465277777777778</v>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="26" t="n">
         <f aca="false">C9-A9</f>
         <v>0.0277777777777778</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>53</v>
+      <c r="E9" s="30" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="n">
+      <c r="A10" s="26" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="27" t="n">
+      <c r="B10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="26" t="n">
         <v>0.763888888888889</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D10" s="26" t="n">
         <f aca="false">C10-A10</f>
         <v>0.0416666666666666</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>54</v>
+      <c r="E10" s="29" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="27" t="n">
+      <c r="A11" s="11"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="26" t="n">
         <f aca="false">C11-A11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="32" t="n">
+      <c r="D12" s="31" t="n">
         <f aca="false">SUM(D4:D11)</f>
         <v>0.309027777777778</v>
       </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26"/>
+      <c r="B16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1444,15 +1862,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.6632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.984693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1490,88 +1906,88 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="32" t="n">
         <v>2.5</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="11"/>
+      <c r="B9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="10"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="13" t="n">
+      <c r="E9" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="11"/>
+      <c r="B10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="10"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="13" t="n">
+      <c r="E10" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
@@ -1580,126 +1996,126 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" s="13"/>
+      <c r="E12" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" s="13"/>
+      <c r="E13" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="13" t="n">
+      <c r="E14" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="33" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="11"/>
+      <c r="B16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="11"/>
+      <c r="B17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="10"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" s="13"/>
+      <c r="E17" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
-      <c r="B18" s="15" t="s">
-        <v>27</v>
+      <c r="B18" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="11"/>
+      <c r="B19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="10"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="13" t="n">
+      <c r="E19" s="32" t="n">
         <v>2.5</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="11"/>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="10"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="13" t="n">
+      <c r="E20" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="n">
@@ -1713,280 +2129,280 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="A24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="C24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="D24" s="13" t="s">
         <v>36</v>
       </c>
+      <c r="E24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="18" t="n">
+      <c r="A25" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="E25" s="19" t="n">
+      <c r="E25" s="17" t="n">
         <v>1.5</v>
       </c>
-      <c r="F25" s="12" t="n">
+      <c r="F25" s="11" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" s="12"/>
+      <c r="A26" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="n">
+      <c r="A27" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="18" t="n">
+        <v>80</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="E27" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" s="12" t="n">
+      <c r="E27" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="11" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="n">
+      <c r="A28" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="12"/>
+      <c r="B28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="n">
+      <c r="A29" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="12"/>
+      <c r="B29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="n">
+      <c r="A30" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19" t="n">
+      <c r="B30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="F30" s="12"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
+      <c r="A31" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="12"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="E32" s="21" t="n">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="E32" s="20" t="n">
         <f aca="false">SUM(E25:E31)</f>
         <v>8</v>
       </c>
-      <c r="F32" s="21" t="n">
+      <c r="F32" s="20" t="n">
         <f aca="false">SUM(F25:F31)</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="16" t="s">
+      <c r="A35" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="C35" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="D35" s="13" t="s">
         <v>36</v>
       </c>
+      <c r="E35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="12"/>
+      <c r="A36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="12"/>
+      <c r="A37" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="n">
+      <c r="A38" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F38" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="n">
+      <c r="A39" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="12"/>
+      <c r="B39" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="n">
+      <c r="A40" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19" t="n">
+      <c r="B40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="F40" s="12"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="n">
+      <c r="A41" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F41" s="12"/>
+      <c r="B41" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="n">
+      <c r="A42" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="12"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="E43" s="21" t="n">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="E43" s="20" t="n">
         <f aca="false">SUM(E36:E42)</f>
         <v>7.5</v>
       </c>
-      <c r="F43" s="21" t="n">
+      <c r="F43" s="20" t="n">
         <f aca="false">SUM(F36:F42)</f>
         <v>0</v>
       </c>
@@ -2015,177 +2431,177 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="111.367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.9438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="110.15306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="35" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>44</v>
+      <c r="A2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="n">
+      <c r="A3" s="26" t="n">
         <v>0.611111111111111</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="27" t="n">
+      <c r="B3" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="26" t="n">
         <v>0.739583333333333</v>
       </c>
-      <c r="D3" s="27" t="n">
+      <c r="D3" s="26" t="n">
         <f aca="false">C3-A3</f>
         <v>0.128472222222222</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="36"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>44</v>
+      <c r="A7" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="n">
+      <c r="A8" s="26" t="n">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="27" t="n">
+      <c r="B8" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="26" t="n">
         <v>0.5625</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="26" t="n">
         <f aca="false">C8-A8</f>
         <v>0.125</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>78</v>
+      <c r="E8" s="27" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="n">
+      <c r="A9" s="26" t="n">
         <v>0.614583333333333</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="27" t="n">
+      <c r="B9" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="26" t="n">
         <v>0.708333333333333</v>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="26" t="n">
         <f aca="false">C9-A9</f>
         <v>0.09375</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>80</v>
+      <c r="E9" s="29" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="27" t="n">
+      <c r="A10" s="11"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="26" t="n">
         <f aca="false">C10-A10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="27" t="n">
+      <c r="A11" s="11"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="26" t="n">
         <f aca="false">C11-A11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="27" t="n">
+      <c r="A12" s="11"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="26" t="n">
         <f aca="false">C12-A12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="27" t="n">
+      <c r="A13" s="11"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="26" t="n">
         <f aca="false">C13-A13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="27" t="n">
+      <c r="A14" s="11"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="26" t="n">
         <f aca="false">C14-A14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="27" t="n">
+      <c r="A15" s="11"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="26" t="n">
         <f aca="false">C15-A15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="29"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Daily_plan/2019/04_April/April.xlsx
+++ b/Daily_plan/2019/04_April/April.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="104">
   <si>
     <t xml:space="preserve">Week_01</t>
   </si>
@@ -185,6 +185,33 @@
   </si>
   <si>
     <t xml:space="preserve">Json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-04-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-04-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed fifo two way communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shared memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed the shared memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic understanding and d/b critical section and mutex</t>
   </si>
   <si>
     <t xml:space="preserve">Monday</t>
@@ -565,6 +592,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -587,10 +618,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -706,22 +733,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:G59"/>
+  <dimension ref="A2:G89"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.984693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.4285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,7 +1057,8 @@
         <v>5</v>
       </c>
       <c r="F24" s="11" t="n">
-        <v>4</v>
+        <f aca="false">4+1+1+3+1</f>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="11" t="n">
-        <v>5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1081,7 +1110,7 @@
       </c>
       <c r="F28" s="0" t="n">
         <f aca="false">SUM(F5:F27)</f>
-        <v>14</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,6 +1632,496 @@
       <c r="F59" s="20" t="n">
         <f aca="false">SUM(F48:F58)</f>
         <v>6.5</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="11"/>
+      <c r="B63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="18" t="n">
+        <f aca="false">F64-E64</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11"/>
+      <c r="B65" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E66" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="18" t="n">
+        <f aca="false">F66-E66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F67" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="18" t="n">
+        <f aca="false">F67-E67</f>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F68" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="18" t="n">
+        <f aca="false">F68-E68</f>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="11"/>
+      <c r="B69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="18" t="n">
+        <f aca="false">F70-E70</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="11"/>
+      <c r="B71" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F72" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G72" s="18" t="n">
+        <f aca="false">F72-E72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F73" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G73" s="18" t="n">
+        <f aca="false">F73-E73</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="E74" s="20" t="n">
+        <f aca="false">SUM(E63:E73)</f>
+        <v>8</v>
+      </c>
+      <c r="F74" s="20" t="n">
+        <f aca="false">SUM(F63:F73)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="11"/>
+      <c r="B78" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="18" t="n">
+        <f aca="false">F79-E79</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="11"/>
+      <c r="B80" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D81" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="18" t="n">
+        <f aca="false">F81-E81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F82" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G82" s="18" t="n">
+        <f aca="false">F82-E82</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" s="16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E83" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F83" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="18" t="n">
+        <f aca="false">F83-E83</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="11"/>
+      <c r="B84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F85" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="18" t="n">
+        <f aca="false">F85-E85</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="11"/>
+      <c r="B86" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F87" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G87" s="18" t="n">
+        <f aca="false">F87-E87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F88" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G88" s="18" t="n">
+        <f aca="false">F88-E88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="E89" s="20" t="n">
+        <f aca="false">SUM(E78:E88)</f>
+        <v>8</v>
+      </c>
+      <c r="F89" s="20" t="n">
+        <f aca="false">SUM(F78:F88)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1629,170 +2148,170 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="110.15306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.1377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="108.938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="75.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>58</v>
+      <c r="A3" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="n">
+      <c r="A4" s="27" t="n">
         <v>0.46875</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="26" t="n">
+        <v>68</v>
+      </c>
+      <c r="C4" s="27" t="n">
         <v>0.496527777777778</v>
       </c>
-      <c r="D4" s="26" t="n">
+      <c r="D4" s="27" t="n">
         <f aca="false">C4-A4</f>
         <v>0.0277777777777778</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>60</v>
+      <c r="E4" s="21" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="n">
+      <c r="A5" s="27" t="n">
         <v>0.496527777777778</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="26" t="n">
+        <v>68</v>
+      </c>
+      <c r="C5" s="27" t="n">
         <v>0.579861111111111</v>
       </c>
-      <c r="D5" s="26" t="n">
+      <c r="D5" s="27" t="n">
         <f aca="false">C5-A5</f>
         <v>0.0833333333333334</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="n">
+      <c r="A6" s="27" t="n">
         <v>0.579861111111111</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="26" t="n">
+        <v>71</v>
+      </c>
+      <c r="C6" s="27" t="n">
         <v>0.611111111111111</v>
       </c>
-      <c r="D6" s="26" t="n">
+      <c r="D6" s="27" t="n">
         <f aca="false">C6-A6</f>
         <v>0.03125</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="n">
+      <c r="A7" s="27" t="n">
         <v>0.611111111111111</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="26" t="n">
+        <v>73</v>
+      </c>
+      <c r="C7" s="27" t="n">
         <v>0.65625</v>
       </c>
-      <c r="D7" s="26" t="n">
+      <c r="D7" s="27" t="n">
         <f aca="false">C7-A7</f>
         <v>0.0451388888888888</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="n">
+      <c r="A8" s="27" t="n">
         <v>0.663194444444444</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="26" t="n">
+        <v>75</v>
+      </c>
+      <c r="C8" s="27" t="n">
         <v>0.715277777777778</v>
       </c>
-      <c r="D8" s="26" t="n">
+      <c r="D8" s="27" t="n">
         <f aca="false">C8-A8</f>
         <v>0.0520833333333334</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="n">
+      <c r="A9" s="27" t="n">
         <v>0.4375</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="26" t="n">
+        <v>76</v>
+      </c>
+      <c r="C9" s="27" t="n">
         <v>0.465277777777778</v>
       </c>
-      <c r="D9" s="26" t="n">
+      <c r="D9" s="27" t="n">
         <f aca="false">C9-A9</f>
         <v>0.0277777777777778</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26" t="n">
+      <c r="A10" s="27" t="n">
         <v>0.722222222222222</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="26" t="n">
+        <v>73</v>
+      </c>
+      <c r="C10" s="27" t="n">
         <v>0.763888888888889</v>
       </c>
-      <c r="D10" s="26" t="n">
+      <c r="D10" s="27" t="n">
         <f aca="false">C10-A10</f>
         <v>0.0416666666666666</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11"/>
       <c r="B11" s="28"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="26" t="n">
+      <c r="D11" s="27" t="n">
         <f aca="false">C11-A11</f>
         <v>0</v>
       </c>
@@ -1805,38 +2324,38 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>58</v>
+      <c r="A15" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
+        <v>78</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="21"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1862,13 +2381,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.984693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1876,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="4"/>
@@ -1980,7 +2501,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="4"/>
@@ -2044,7 +2565,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="33" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -2056,7 +2577,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="4"/>
@@ -2070,7 +2591,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="4"/>
@@ -2132,7 +2653,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,10 +2681,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D25" s="16" t="n">
         <v>0.5</v>
@@ -2180,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
@@ -2194,10 +2715,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>81</v>
+        <v>89</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="D27" s="16" t="n">
         <v>0.5</v>
@@ -2214,7 +2735,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
@@ -2228,7 +2749,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="16"/>
@@ -2242,7 +2763,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="16"/>
@@ -2278,7 +2799,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2306,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="16"/>
@@ -2320,7 +2841,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
@@ -2334,9 +2855,9 @@
         <v>3</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="27"/>
+        <v>89</v>
+      </c>
+      <c r="C38" s="21"/>
       <c r="D38" s="16"/>
       <c r="E38" s="17" t="n">
         <v>2</v>
@@ -2348,7 +2869,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
@@ -2362,7 +2883,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="16"/>
@@ -2376,7 +2897,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="16"/>
@@ -2431,51 +2952,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="110.15306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.1377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="108.938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="75.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="35" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>58</v>
+      <c r="A2" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="n">
+      <c r="A3" s="27" t="n">
         <v>0.611111111111111</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="26" t="n">
+        <v>98</v>
+      </c>
+      <c r="C3" s="27" t="n">
         <v>0.739583333333333</v>
       </c>
-      <c r="D3" s="26" t="n">
+      <c r="D3" s="27" t="n">
         <f aca="false">C3-A3</f>
         <v>0.128472222222222</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2487,67 +3008,67 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>58</v>
+      <c r="A7" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="n">
+      <c r="A8" s="27" t="n">
         <v>0.4375</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" s="27" t="n">
         <v>0.5625</v>
       </c>
-      <c r="D8" s="26" t="n">
+      <c r="D8" s="27" t="n">
         <f aca="false">C8-A8</f>
         <v>0.125</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>92</v>
+      <c r="E8" s="21" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="n">
+      <c r="A9" s="27" t="n">
         <v>0.614583333333333</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="26" t="n">
+        <v>102</v>
+      </c>
+      <c r="C9" s="27" t="n">
         <v>0.708333333333333</v>
       </c>
-      <c r="D9" s="26" t="n">
+      <c r="D9" s="27" t="n">
         <f aca="false">C9-A9</f>
         <v>0.09375</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11"/>
       <c r="B10" s="28"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="26" t="n">
+      <c r="D10" s="27" t="n">
         <f aca="false">C10-A10</f>
         <v>0</v>
       </c>
@@ -2557,7 +3078,7 @@
       <c r="A11" s="11"/>
       <c r="B11" s="28"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="26" t="n">
+      <c r="D11" s="27" t="n">
         <f aca="false">C11-A11</f>
         <v>0</v>
       </c>
@@ -2567,7 +3088,7 @@
       <c r="A12" s="11"/>
       <c r="B12" s="28"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="26" t="n">
+      <c r="D12" s="27" t="n">
         <f aca="false">C12-A12</f>
         <v>0</v>
       </c>
@@ -2577,7 +3098,7 @@
       <c r="A13" s="11"/>
       <c r="B13" s="28"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="26" t="n">
+      <c r="D13" s="27" t="n">
         <f aca="false">C13-A13</f>
         <v>0</v>
       </c>
@@ -2587,7 +3108,7 @@
       <c r="A14" s="11"/>
       <c r="B14" s="28"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="26" t="n">
+      <c r="D14" s="27" t="n">
         <f aca="false">C14-A14</f>
         <v>0</v>
       </c>
@@ -2597,7 +3118,7 @@
       <c r="A15" s="11"/>
       <c r="B15" s="28"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="26" t="n">
+      <c r="D15" s="27" t="n">
         <f aca="false">C15-A15</f>
         <v>0</v>
       </c>

--- a/Daily_plan/2019/04_April/April.xlsx
+++ b/Daily_plan/2019/04_April/April.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="151">
   <si>
     <t xml:space="preserve">Week_04</t>
   </si>
@@ -157,6 +157,42 @@
     <t xml:space="preserve">noexcept is completed</t>
   </si>
   <si>
+    <t xml:space="preserve">Wed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-04-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy constructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee meet, earth day activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-04-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy constructor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started with auto ptr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep copy and shallow copy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understood the deep and shallow copy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session on Git, YT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rough sheet </t>
   </si>
   <si>
@@ -253,9 +289,6 @@
     <t xml:space="preserve">C++ 11 Feature</t>
   </si>
   <si>
-    <t xml:space="preserve">Wed</t>
-  </si>
-  <si>
     <t xml:space="preserve">17-04-2019</t>
   </si>
   <si>
@@ -311,9 +344,6 @@
   </si>
   <si>
     <t xml:space="preserve">10-04-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thu</t>
   </si>
   <si>
     <t xml:space="preserve">11-04-2019</t>
@@ -861,23 +891,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.7040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.1632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,7 +961,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="11" t="n">
-        <v>1</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,7 +1119,7 @@
         <v>2.5</v>
       </c>
       <c r="F16" s="11" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1105,7 +1135,7 @@
         <v>2.5</v>
       </c>
       <c r="F17" s="11" t="n">
-        <v>1.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,7 +1145,7 @@
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">SUM(F3:F17)</f>
-        <v>5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,11 +1464,15 @@
         <v>13</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
+      <c r="D39" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="E39" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="11"/>
+      <c r="F39" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="G39" s="18" t="n">
         <f aca="false">F39-E39</f>
         <v>-1</v>
@@ -1452,11 +1486,15 @@
         <v>14</v>
       </c>
       <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
+      <c r="D40" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="E40" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="G40" s="18" t="n">
         <f aca="false">F40-E40</f>
         <v>-1</v>
@@ -1481,11 +1519,15 @@
         <v>33</v>
       </c>
       <c r="C42" s="19"/>
-      <c r="D42" s="16"/>
+      <c r="D42" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="E42" s="17" t="n">
         <v>1.5</v>
       </c>
-      <c r="F42" s="11"/>
+      <c r="F42" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="G42" s="18" t="n">
         <f aca="false">F42-E42</f>
         <v>-1.5</v>
@@ -1545,11 +1587,15 @@
         <v>33</v>
       </c>
       <c r="C46" s="19"/>
-      <c r="D46" s="16"/>
+      <c r="D46" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="E46" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="F46" s="11"/>
+      <c r="F46" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="G46" s="18" t="n">
         <f aca="false">F46-E46</f>
         <v>-1</v>
@@ -1574,14 +1620,18 @@
         <v>21</v>
       </c>
       <c r="C48" s="9"/>
-      <c r="D48" s="16"/>
+      <c r="D48" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="E48" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="F48" s="11"/>
+      <c r="F48" s="11" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G48" s="18" t="n">
         <f aca="false">F48-E48</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,14 +1642,18 @@
         <v>22</v>
       </c>
       <c r="C49" s="19"/>
-      <c r="D49" s="16"/>
+      <c r="D49" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="E49" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="F49" s="11"/>
+      <c r="F49" s="11" t="n">
+        <v>1.5</v>
+      </c>
       <c r="G49" s="18" t="n">
         <f aca="false">F49-E49</f>
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1611,7 +1665,493 @@
       </c>
       <c r="F50" s="21" t="n">
         <f aca="false">SUM(F38:F49)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11"/>
+      <c r="B54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="18" t="n">
+        <f aca="false">F55-E55</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="18" t="n">
+        <f aca="false">F56-E56</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="11"/>
+      <c r="B57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="11" t="n">
         <v>3</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F58" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="18" t="n">
+        <f aca="false">F58-E58</f>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="11"/>
+      <c r="B59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" s="11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G60" s="18" t="n">
+        <f aca="false">F60-E60</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="11"/>
+      <c r="B61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="18" t="n">
+        <f aca="false">F62-E62</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="11"/>
+      <c r="B63" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F64" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G64" s="18" t="n">
+        <f aca="false">F64-E64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F65" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" s="18" t="n">
+        <f aca="false">F65-E65</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="E66" s="21" t="n">
+        <f aca="false">SUM(E54:E65)</f>
+        <v>7.5</v>
+      </c>
+      <c r="F66" s="21" t="n">
+        <f aca="false">SUM(F54:F65)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="11"/>
+      <c r="B70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F71" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="18" t="n">
+        <f aca="false">F71-E71</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E72" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" s="11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G72" s="18" t="n">
+        <f aca="false">F72-E72</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" s="17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F73" s="11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G73" s="18" t="n">
+        <f aca="false">F73-E73</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="11"/>
+      <c r="B74" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="18" t="n">
+        <f aca="false">F75-E75</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="11"/>
+      <c r="B76" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F77" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G77" s="18" t="n">
+        <f aca="false">F77-E77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F78" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G78" s="18" t="n">
+        <f aca="false">F78-E78</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="E79" s="21" t="n">
+        <f aca="false">SUM(E70:E78)</f>
+        <v>7.5</v>
+      </c>
+      <c r="F79" s="21" t="n">
+        <f aca="false">SUM(F70:F78)</f>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -1638,37 +2178,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1679,13 +2221,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D8" s="22"/>
     </row>
@@ -1697,17 +2239,17 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1737,23 +2279,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.8571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,7 +2321,7 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -1791,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="4"/>
@@ -1805,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
@@ -1819,7 +2361,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="4"/>
@@ -1831,7 +2373,7 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
@@ -1843,7 +2385,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="4"/>
@@ -1857,7 +2399,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="4"/>
@@ -1871,7 +2413,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="4"/>
@@ -1907,7 +2449,7 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
@@ -1919,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="4"/>
@@ -1933,7 +2475,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="4"/>
@@ -1947,7 +2489,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="4"/>
@@ -1961,7 +2503,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="4"/>
@@ -1975,7 +2517,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="4"/>
@@ -1989,7 +2531,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="4"/>
@@ -2003,7 +2545,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="4"/>
@@ -2027,7 +2569,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="4"/>
@@ -2089,7 +2631,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="16"/>
@@ -2147,7 +2689,7 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11"/>
       <c r="B32" s="5" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
@@ -2160,7 +2702,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="16"/>
@@ -2178,7 +2720,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="16"/>
@@ -2194,7 +2736,7 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11"/>
       <c r="B35" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
@@ -2223,7 +2765,7 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11"/>
       <c r="B37" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
@@ -2236,7 +2778,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="16"/>
@@ -2310,10 +2852,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="16"/>
@@ -2371,7 +2913,7 @@
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11"/>
       <c r="B48" s="5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
@@ -2400,7 +2942,7 @@
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11"/>
       <c r="B50" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
@@ -2413,7 +2955,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="16"/>
@@ -2507,23 +3049,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.8571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2549,7 +3091,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
@@ -2561,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
@@ -2575,7 +3117,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="4"/>
@@ -2589,7 +3131,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="4"/>
@@ -2601,7 +3143,7 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
@@ -2613,7 +3155,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="4"/>
@@ -2627,7 +3169,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="4"/>
@@ -2641,7 +3183,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="4"/>
@@ -2679,7 +3221,7 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
@@ -2691,7 +3233,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="4"/>
@@ -2707,7 +3249,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="4"/>
@@ -2721,7 +3263,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="4"/>
@@ -2735,7 +3277,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="4"/>
@@ -2749,7 +3291,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="4"/>
@@ -2763,7 +3305,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="4"/>
@@ -2777,7 +3319,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="4"/>
@@ -2791,7 +3333,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="4"/>
@@ -2815,7 +3357,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="4"/>
@@ -2884,7 +3426,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,7 +3471,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D33" s="16" t="n">
         <v>0.35</v>
@@ -2948,7 +3490,7 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11"/>
       <c r="B34" s="5" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
@@ -2961,10 +3503,10 @@
         <v>2</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D35" s="16" t="n">
         <v>1</v>
@@ -2985,7 +3527,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>34</v>
@@ -3007,7 +3549,7 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11"/>
       <c r="B37" s="5" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
@@ -3020,7 +3562,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>34</v>
@@ -3042,7 +3584,7 @@
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11"/>
       <c r="B39" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
@@ -3055,7 +3597,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>34</v>
@@ -3117,7 +3659,7 @@
         <v>22</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D43" s="16" t="n">
         <v>1</v>
@@ -3150,7 +3692,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>34</v>
@@ -3227,10 +3769,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D51" s="16" t="n">
         <v>1</v>
@@ -3251,10 +3793,10 @@
         <v>3</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D52" s="16" t="n">
         <v>0.5</v>
@@ -3275,7 +3817,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>34</v>
@@ -3297,7 +3839,7 @@
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11"/>
       <c r="B54" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
@@ -3310,7 +3852,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>34</v>
@@ -3372,7 +3914,7 @@
         <v>22</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D58" s="16" t="n">
         <v>1</v>
@@ -3402,10 +3944,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="16" t="n">
@@ -3480,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="16" t="n">
@@ -3502,7 +4044,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="16" t="n">
@@ -3544,7 +4086,7 @@
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="11"/>
       <c r="B69" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
@@ -3557,7 +4099,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="16" t="n">
@@ -3643,10 +4185,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3688,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C79" s="19"/>
       <c r="D79" s="16" t="n">
@@ -3721,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D81" s="16" t="n">
         <v>1</v>
@@ -3748,7 +4290,7 @@
         <v>13</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D82" s="16" t="n">
         <v>1</v>
@@ -3772,7 +4314,7 @@
         <v>14</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D83" s="16" t="n">
         <v>0.3</v>
@@ -3791,7 +4333,7 @@
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="11"/>
       <c r="B84" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="7"/>
@@ -3804,7 +4346,7 @@
         <v>5</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="16" t="n">
@@ -3914,35 +4456,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="71.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="101.785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="70.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3950,7 +4494,7 @@
         <v>0.46875</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C4" s="29" t="n">
         <v>0.496527777777778</v>
@@ -3960,7 +4504,7 @@
         <v>0.027777777777778</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3968,7 +4512,7 @@
         <v>0.496527777777778</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C5" s="29" t="n">
         <v>0.579861111111111</v>
@@ -3978,7 +4522,7 @@
         <v>0.083333333333333</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3986,7 +4530,7 @@
         <v>0.579861111111111</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C6" s="29" t="n">
         <v>0.611111111111111</v>
@@ -3996,7 +4540,7 @@
         <v>0.03125</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4004,7 +4548,7 @@
         <v>0.611111111111111</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C7" s="29" t="n">
         <v>0.65625</v>
@@ -4014,7 +4558,7 @@
         <v>0.0451388888888889</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4022,7 +4566,7 @@
         <v>0.663194444444444</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C8" s="29" t="n">
         <v>0.715277777777778</v>
@@ -4032,7 +4576,7 @@
         <v>0.0520833333333339</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4040,7 +4584,7 @@
         <v>0.4375</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C9" s="29" t="n">
         <v>0.465277777777778</v>
@@ -4050,7 +4594,7 @@
         <v>0.027777777777778</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4058,7 +4602,7 @@
         <v>0.722222222222222</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C10" s="29" t="n">
         <v>0.763888888888889</v>
@@ -4068,7 +4612,7 @@
         <v>0.041666666666667</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4089,33 +4633,33 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="29"/>
       <c r="B16" s="19" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -4145,23 +4689,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.8571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4187,7 +4731,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
@@ -4199,7 +4743,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="4"/>
@@ -4213,7 +4757,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="4"/>
@@ -4227,7 +4771,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="4"/>
@@ -4251,7 +4795,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="4"/>
@@ -4265,7 +4809,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="4"/>
@@ -4277,7 +4821,7 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
@@ -4289,7 +4833,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="4"/>
@@ -4303,7 +4847,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="4"/>
@@ -4317,7 +4861,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="4"/>
@@ -4329,7 +4873,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="35" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -4341,7 +4885,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="4"/>
@@ -4355,7 +4899,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="4"/>
@@ -4417,7 +4961,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4445,10 +4989,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D25" s="16" t="n">
         <v>0.5</v>
@@ -4465,7 +5009,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="16"/>
@@ -4479,10 +5023,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D27" s="16" t="n">
         <v>0.5</v>
@@ -4499,7 +5043,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="16"/>
@@ -4513,7 +5057,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="16"/>
@@ -4527,7 +5071,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="16"/>
@@ -4563,7 +5107,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="16"/>
@@ -4605,7 +5149,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="16"/>
@@ -4619,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="16"/>
@@ -4633,7 +5177,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="16"/>
@@ -4647,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="16"/>
@@ -4661,7 +5205,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="16"/>
@@ -4716,30 +5260,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="71.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="101.785714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="70.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="37" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4747,7 +5294,7 @@
         <v>0.611111111111111</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C3" s="29" t="n">
         <v>0.739583333333333</v>
@@ -4757,7 +5304,7 @@
         <v>0.128472222222222</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4769,24 +5316,24 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="37" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4794,7 +5341,7 @@
         <v>0.4375</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C8" s="29" t="n">
         <v>0.5625</v>
@@ -4804,7 +5351,7 @@
         <v>0.125</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4812,7 +5359,7 @@
         <v>0.614583333333333</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C9" s="29" t="n">
         <v>0.708333333333333</v>
@@ -4822,7 +5369,7 @@
         <v>0.09375</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
